--- a/王俊杰/12 绝缘材料的相对介电常数和介质损耗因数测试/A12数据收集.xlsx
+++ b/王俊杰/12 绝缘材料的相对介电常数和介质损耗因数测试/A12数据收集.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\共享文件\Better-Fundamentals-of-Materials-Science\王俊杰\12 绝缘材料的相对介电常数和介质损耗因数测试\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\72992\Documents\GitHub\Better-Fundamentals-of-Materials-Science\王俊杰\12 绝缘材料的相对介电常数和介质损耗因数测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185548A6-F0BD-4DF7-A6F0-AAAB1B48C373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6046A908-8218-4C57-A018-AE324456F211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{8F71BCB2-2AC3-4488-9E2D-17A0EE19453C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{8F71BCB2-2AC3-4488-9E2D-17A0EE19453C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,9 +184,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -237,7 +238,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -520,81 +521,68 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -638,19 +626,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -751,25 +726,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -787,34 +762,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -823,16 +792,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -868,7 +834,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -889,9 +864,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -929,7 +904,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1035,7 +1010,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1177,7 +1152,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1190,27 +1165,27 @@
   </sheetPr>
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.6640625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="8.4140625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="14.08203125" style="26" customWidth="1"/>
-    <col min="4" max="13" width="11.08203125" style="26" customWidth="1"/>
-    <col min="14" max="16384" width="8.9140625" style="26"/>
+    <col min="2" max="2" width="8.3984375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="14.06640625" style="26" customWidth="1"/>
+    <col min="4" max="13" width="11.06640625" style="26" customWidth="1"/>
+    <col min="14" max="16384" width="8.9296875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:21" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51"/>
+      <c r="C1" s="48"/>
       <c r="D1" s="23" t="s">
         <v>1</v>
       </c>
@@ -1242,208 +1217,268 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44"/>
-      <c r="B2" s="48" t="s">
+    <row r="2" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="41"/>
+      <c r="B2" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="39"/>
+      <c r="D2" s="1">
+        <v>91</v>
+      </c>
+      <c r="E2" s="2">
+        <v>194.9</v>
+      </c>
+      <c r="F2" s="2">
+        <v>194</v>
+      </c>
+      <c r="G2" s="2">
+        <v>224.5</v>
+      </c>
+      <c r="H2" s="52">
+        <v>0.15989999999999999</v>
+      </c>
       <c r="I2" s="2">
         <v>3.61</v>
       </c>
-      <c r="J2" s="2" t="e">
+      <c r="J2" s="2">
         <f>I2/(3.6*H2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K2" s="2" t="e">
+        <v>6.2712806615245649</v>
+      </c>
+      <c r="K2" s="2">
         <f t="shared" ref="K2:K7" si="0">((G2-E2)+J2)/J2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L2" s="3" t="e">
+        <v>5.7199290858725744</v>
+      </c>
+      <c r="L2" s="3">
         <f t="shared" ref="L2:L7" si="1">(J2+G2)/(J2+G2-E2)*(1/D2-1/F2)</f>
-        <v>#DIV/0!</v>
+        <v>3.7534357025604939E-2</v>
       </c>
       <c r="M2" s="22">
-        <v>16.8</v>
-      </c>
-      <c r="R2" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
     </row>
-    <row r="3" spans="1:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="44"/>
-      <c r="B3" s="52"/>
+    <row r="3" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="41"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="D3" s="4">
+        <v>191</v>
+      </c>
+      <c r="E3" s="5">
+        <v>210</v>
+      </c>
+      <c r="F3" s="5">
+        <v>192</v>
+      </c>
+      <c r="G3" s="5">
+        <v>220</v>
+      </c>
+      <c r="H3" s="53">
+        <v>9.9099999999999994E-2</v>
+      </c>
       <c r="I3" s="5">
         <v>3.61</v>
       </c>
-      <c r="J3" s="5" t="e">
+      <c r="J3" s="5">
         <f t="shared" ref="J3:J7" si="2">I3/(3.6*H3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3" s="5" t="e">
+        <v>10.118847404417536</v>
+      </c>
+      <c r="K3" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" s="6" t="e">
+        <v>1.9882548476454294</v>
+      </c>
+      <c r="L3" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3.1189936998099899E-4</v>
       </c>
       <c r="M3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
     </row>
-    <row r="4" spans="1:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="44"/>
-      <c r="B4" s="49"/>
+    <row r="4" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="41"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="D4" s="8">
+        <v>182</v>
+      </c>
+      <c r="E4" s="9">
+        <v>209.8</v>
+      </c>
+      <c r="F4" s="9">
+        <v>190</v>
+      </c>
+      <c r="G4" s="9">
+        <v>224.8</v>
+      </c>
+      <c r="H4" s="54">
+        <v>0.19</v>
+      </c>
       <c r="I4" s="9">
         <v>3.61</v>
       </c>
-      <c r="J4" s="9" t="e">
+      <c r="J4" s="9">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" s="9" t="e">
+        <v>5.2777777777777768</v>
+      </c>
+      <c r="K4" s="9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="10" t="e">
+        <v>3.8421052631578956</v>
+      </c>
+      <c r="L4" s="10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="38">
-        <v>0.6</v>
-      </c>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
+        <v>2.6249395881695879E-3</v>
+      </c>
+      <c r="M4" s="36">
+        <v>0.72</v>
+      </c>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
     </row>
-    <row r="5" spans="1:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="44"/>
-      <c r="B5" s="52" t="s">
+    <row r="5" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="41"/>
+      <c r="B5" s="49" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="D5" s="35">
+        <v>139</v>
+      </c>
+      <c r="E5" s="2">
+        <v>224.6</v>
+      </c>
+      <c r="F5" s="2">
+        <v>211</v>
+      </c>
+      <c r="G5" s="2">
+        <v>246.2</v>
+      </c>
+      <c r="H5" s="52">
+        <v>0.15989999999999999</v>
+      </c>
       <c r="I5" s="2">
         <v>3.61</v>
       </c>
-      <c r="J5" s="2" t="e">
+      <c r="J5" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6.2712806615245649</v>
+      </c>
+      <c r="K5" s="2">
+        <f>((G5-E5)+J5)/J5</f>
+        <v>4.4442725761772834</v>
+      </c>
+      <c r="L5" s="3">
+        <f>(J5+G5)/(J5+G5-E5)*(1/D5-1/F5)</f>
+        <v>2.2237722131426118E-2</v>
       </c>
       <c r="M5" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
-      <c r="B6" s="52"/>
+    <row r="6" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="41"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="D6" s="4">
+        <v>220</v>
+      </c>
+      <c r="E6" s="5">
+        <v>233.2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>221</v>
+      </c>
+      <c r="G6" s="5">
+        <v>242</v>
+      </c>
+      <c r="H6" s="53">
+        <v>9.4E-2</v>
+      </c>
       <c r="I6" s="5">
         <v>3.61</v>
       </c>
-      <c r="J6" s="5" t="e">
+      <c r="J6" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" s="5" t="e">
+        <v>10.667848699763592</v>
+      </c>
+      <c r="K6" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="6" t="e">
+        <v>1.824908587257619</v>
+      </c>
+      <c r="L6" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="48"/>
+        <v>2.66942095765324E-4</v>
+      </c>
+      <c r="M6" s="45"/>
     </row>
-    <row r="7" spans="1:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="45"/>
-      <c r="B7" s="49"/>
+    <row r="7" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="42"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="D7" s="8">
+        <v>220</v>
+      </c>
+      <c r="E7" s="9">
+        <v>235</v>
+      </c>
+      <c r="F7" s="9">
+        <v>222</v>
+      </c>
+      <c r="G7" s="9">
+        <v>246.8</v>
+      </c>
+      <c r="H7" s="54">
+        <v>0.189</v>
+      </c>
       <c r="I7" s="9">
         <v>3.61</v>
       </c>
-      <c r="J7" s="9" t="e">
+      <c r="J7" s="9">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="9" t="e">
+        <v>5.3057025279247503</v>
+      </c>
+      <c r="K7" s="9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="10" t="e">
+        <v>3.2240221606648221</v>
+      </c>
+      <c r="L7" s="10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="49"/>
+        <v>6.0352615307111715E-4</v>
+      </c>
+      <c r="M7" s="46"/>
     </row>
-    <row r="8" spans="1:21" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="43" t="s">
+    <row r="8" spans="1:21" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="23" t="s">
         <v>20</v>
       </c>
@@ -1479,110 +1514,143 @@
       <c r="P8" s="30"/>
       <c r="Q8" s="14"/>
     </row>
-    <row r="9" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
-      <c r="B9" s="40" t="s">
+    <row r="9" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="41"/>
+      <c r="B9" s="37" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
+      <c r="D9" s="31">
+        <v>-0.01</v>
+      </c>
+      <c r="E9" s="32">
+        <v>1.6279999999999999</v>
+      </c>
       <c r="F9" s="32">
         <f>E9-D9</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="32"/>
+        <v>1.6379999999999999</v>
+      </c>
+      <c r="G9" s="32">
+        <v>0.28899999999999998</v>
+      </c>
       <c r="H9" s="32">
         <f>G9-D9</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="16" t="e">
-        <f>3.61/3.6/F9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="16" t="e">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="I9" s="32">
+        <f>18.47-6.619</f>
+        <v>11.850999999999999</v>
+      </c>
+      <c r="J9" s="32">
+        <v>7.7430000000000003</v>
+      </c>
+      <c r="K9" s="16">
+        <f>3.61/3.6/F9*10</f>
+        <v>6.121964455297789</v>
+      </c>
+      <c r="L9" s="16">
         <f>F9/H9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="17" t="e">
+        <v>5.4782608695652169</v>
+      </c>
+      <c r="M9" s="17">
         <f>(H9*0.33*(I9-J9))/(20*F9*K9)</f>
-        <v>#DIV/0!</v>
+        <v>2.0210677229916892E-3</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="28"/>
       <c r="P9" s="27"/>
       <c r="Q9" s="28"/>
     </row>
-    <row r="10" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="41"/>
+    <row r="10" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="41"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34">
+      <c r="D10" s="31">
+        <v>-0.01</v>
+      </c>
+      <c r="E10" s="33">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="F10" s="33">
         <f>E10-D10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="G10" s="33">
+        <v>0.501</v>
+      </c>
+      <c r="H10" s="33">
         <f>G10-D10</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="5" t="e">
-        <f>3.61/3.6/F10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="5" t="e">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="I10" s="33">
+        <f>16.145-7.821</f>
+        <v>8.3239999999999998</v>
+      </c>
+      <c r="J10" s="33">
+        <v>7.8209999999999997</v>
+      </c>
+      <c r="K10" s="16">
+        <f t="shared" ref="K10:K11" si="3">3.61/3.6/F10*10</f>
+        <v>10.533380018674137</v>
+      </c>
+      <c r="L10" s="5">
         <f>F10/H10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="18" t="e">
+        <v>1.8630136986301369</v>
+      </c>
+      <c r="M10" s="18">
         <f>(H10*0.33*(I10-J10))/(20*F10*K10)</f>
-        <v>#DIV/0!</v>
+        <v>4.2292964542936295E-4</v>
       </c>
       <c r="N10" s="27"/>
       <c r="O10" s="28"/>
       <c r="P10" s="27"/>
       <c r="Q10" s="28"/>
     </row>
-    <row r="11" spans="1:21" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="45"/>
-      <c r="B11" s="42"/>
+    <row r="11" spans="1:21" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="42"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36">
+      <c r="D11" s="31">
+        <v>-0.01</v>
+      </c>
+      <c r="E11" s="34">
+        <v>1.8979999999999999</v>
+      </c>
+      <c r="F11" s="34">
         <f>E11-D11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36">
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="G11" s="34">
+        <v>0.753</v>
+      </c>
+      <c r="H11" s="34">
         <f>G11-D11</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="20" t="e">
-        <f>3.61/3.6/F11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L11" s="20" t="e">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="I11" s="34">
+        <f>15.841-7.042</f>
+        <v>8.7989999999999995</v>
+      </c>
+      <c r="J11" s="34">
+        <v>8.32</v>
+      </c>
+      <c r="K11" s="16">
+        <f t="shared" si="3"/>
+        <v>5.2556487304914974</v>
+      </c>
+      <c r="L11" s="20">
         <f>F11/H11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="21" t="e">
+        <v>2.5006553079947573</v>
+      </c>
+      <c r="M11" s="21">
         <f>(H11*0.33*(I11-J11))/(20*F11*K11)</f>
-        <v>#DIV/0!</v>
+        <v>6.0136658725761687E-4</v>
       </c>
       <c r="N11" s="29"/>
       <c r="O11" s="10"/>
